--- a/REGULAR/RE-ENCODE/MONTENEGRO, MARISSA.xlsx
+++ b/REGULAR/RE-ENCODE/MONTENEGRO, MARISSA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\RE-ENCODE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0F0640A-7389-4F7A-A23D-9E48F72B9C8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2C4B9B69-0AD3-46D4-A495-D1BDE1D16EC6}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="INSTRUCTION" sheetId="4" r:id="rId1"/>
@@ -25,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -316,7 +315,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -970,7 +969,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1018,7 +1016,7 @@
         <xdr:cNvPr id="7" name="Picture 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{3B5D8F3C-4FD5-4318-83F6-163B56792B3A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1061,7 +1059,7 @@
         <xdr:cNvPr id="5" name="TextBox 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A0BAE224-67DC-A2F7-0A1F-28CB86DFB7CA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1125,7 +1123,7 @@
         <xdr:cNvPr id="4" name="Arrow: Left 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{7243AC54-FD55-C7CF-DEF3-E45E6F99CAA1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1185,7 +1183,7 @@
         <xdr:cNvPr id="8" name="Oval 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6CEC4AD9-D5D6-0CFD-8D82-CC23F90E3707}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1251,7 +1249,7 @@
         <xdr:cNvPr id="9" name="Arrow: Left-Right 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EAE8B24D-B9B9-4AB0-AE94-782594B55A03}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1314,7 +1312,7 @@
         <xdr:cNvPr id="10" name="TextBox 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{D163C4F0-3D7F-3E52-4B17-0D29F1241915}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1412,7 +1410,7 @@
         <xdr:cNvPr id="14" name="Straight Arrow Connector 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{642CA079-93A1-34E3-CEF5-F7D33015D895}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1471,7 +1469,7 @@
         <xdr:cNvPr id="19" name="TextBox 18">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{784FECEA-1780-3E7F-7EBB-9F8254797C91}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1536,7 +1534,7 @@
         <xdr:cNvPr id="20" name="Picture 19">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{5DCCE859-255F-F039-E92D-1510F02C6167}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1579,7 +1577,7 @@
         <xdr:cNvPr id="21" name="TextBox 20">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0A7AA7C6-9540-EB37-E3D2-9A2A68BD6824}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1654,7 +1652,7 @@
         <xdr:cNvPr id="22" name="TextBox 21">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F1674299-9801-A253-3871-18715F4FF740}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1840,7 +1838,7 @@
         <xdr:cNvPr id="23" name="Oval 22">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{66C92862-99CA-461F-932E-30DFD0874402}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1906,7 +1904,7 @@
         <xdr:cNvPr id="24" name="Straight Arrow Connector 23">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{FD20A152-8288-4C69-BE76-AD8E41A960CE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1964,7 +1962,7 @@
         <xdr:cNvPr id="26" name="Oval 25">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{EE7E56BE-0B3E-4110-A5A9-44C888A46B90}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2030,7 +2028,7 @@
         <xdr:cNvPr id="27" name="Straight Arrow Connector 26">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{C33E41C1-1592-4272-A561-4833666913C5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2086,7 +2084,7 @@
         <xdr:cNvPr id="30" name="TextBox 29">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{6C655B57-0D66-4740-B73E-75D1E106F99A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2161,7 +2159,7 @@
         <xdr:cNvPr id="31" name="Picture 30">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{0284C105-1E11-4529-B509-D655B8C5279A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2204,7 +2202,7 @@
         <xdr:cNvPr id="32" name="Oval 31">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{E73E9A40-2B3C-47DC-9C07-7C65795CE0A2}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2270,7 +2268,7 @@
         <xdr:cNvPr id="33" name="Straight Arrow Connector 32">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{32002197-8137-42BA-B3E7-2690738DB64B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2326,7 +2324,7 @@
         <xdr:cNvPr id="34" name="TextBox 33">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{A781E01A-37B6-4259-9759-556FE6893D51}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -2422,25 +2420,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1D52DCCA-84C7-4E23-9F01-BAD20F9E44D8}" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K195" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{29298656-164E-44DD-A190-558D78410746}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{653A013C-2253-41B2-B51E-E0CEE6FCA4B9}" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{23618FA7-8FE1-47F3-A791-7E4F2612427B}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{BA6D2C36-5CF4-40D7-AFDD-218AEBB26721}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{44B79BA7-06A4-4888-BFE5-96396FB13C9E}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{1A20B288-1D72-4858-B3C2-871EB9CF011E}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{16E84B2D-53AC-4AEA-B1BC-1BC1E2E9B51B}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{A10DEDBF-F571-4518-A832-0B75654FC984}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{9E225A68-4AC2-420E-B4D1-1378612CB5CD}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{715FA023-3759-440B-8D8E-42D3E30EC36F}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{7E55BDC4-4FFC-4009-94E5-7F3F3565D56A}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2747,7 +2745,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D098C40-D36A-4A12-B6E1-6D049DE49862}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -2757,7 +2755,7 @@
       <selection activeCell="Z62" sqref="Z62"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2765,34 +2763,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A0FF8E2B-FA0C-43AD-94F6-3305AF75672F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K195"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A108" activePane="bottomLeft"/>
-      <selection activeCell="G8" sqref="G8"/>
-      <selection pane="bottomLeft" activeCell="B118" sqref="B118"/>
+      <pane ySplit="3690" topLeftCell="A108"/>
+      <selection activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="C119" sqref="C119"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.77734375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.77734375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2815,7 +2813,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2835,7 +2833,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2857,7 +2855,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2865,7 +2863,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2878,7 +2876,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2895,7 +2893,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2930,7 +2928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2939,7 +2937,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>69.5</v>
+        <v>70.75</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2949,12 +2947,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>23.5</v>
+        <v>24.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="40"/>
       <c r="B10" s="20"/>
       <c r="C10" s="13"/>
@@ -2974,7 +2972,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="48" t="s">
         <v>49</v>
       </c>
@@ -2992,7 +2990,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="40">
         <v>43101</v>
       </c>
@@ -3016,7 +3014,7 @@
         <v>43111</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="40"/>
       <c r="B13" s="20" t="s">
         <v>52</v>
@@ -3038,7 +3036,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="40"/>
       <c r="B14" s="20" t="s">
         <v>52</v>
@@ -3060,7 +3058,7 @@
         <v>43131</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="40">
         <v>43132</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>43140</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="40">
         <v>43160</v>
       </c>
@@ -3110,7 +3108,7 @@
         <v>43164</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="40"/>
       <c r="B17" s="20" t="s">
         <v>54</v>
@@ -3132,7 +3130,7 @@
         <v>43168</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="40"/>
       <c r="B18" s="20" t="s">
         <v>52</v>
@@ -3154,7 +3152,7 @@
         <v>43167</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="40"/>
       <c r="B19" s="20" t="s">
         <v>52</v>
@@ -3176,7 +3174,7 @@
         <v>43178</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="40">
         <v>43191</v>
       </c>
@@ -3202,7 +3200,7 @@
         <v>43200</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="40"/>
       <c r="B21" s="20" t="s">
         <v>52</v>
@@ -3224,7 +3222,7 @@
         <v>43207</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="40">
         <v>43221</v>
       </c>
@@ -3250,7 +3248,7 @@
         <v>43228</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="40"/>
       <c r="B23" s="20" t="s">
         <v>52</v>
@@ -3272,7 +3270,7 @@
         <v>43251</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="40">
         <v>43252</v>
       </c>
@@ -3292,7 +3290,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="40">
         <v>43282</v>
       </c>
@@ -3312,7 +3310,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="40">
         <v>43313</v>
       </c>
@@ -3338,7 +3336,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="40"/>
       <c r="B27" s="20" t="s">
         <v>52</v>
@@ -3360,7 +3358,7 @@
         <v>43340</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="40">
         <v>43344</v>
       </c>
@@ -3386,7 +3384,7 @@
         <v>43348</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="40"/>
       <c r="B29" s="20" t="s">
         <v>52</v>
@@ -3408,7 +3406,7 @@
         <v>43367</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="40">
         <v>43374</v>
       </c>
@@ -3432,7 +3430,7 @@
         <v>43392</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="40"/>
       <c r="B31" s="20" t="s">
         <v>55</v>
@@ -3454,7 +3452,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="40"/>
       <c r="B32" s="20" t="s">
         <v>52</v>
@@ -3476,7 +3474,7 @@
         <v>43391</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="40">
         <v>43405</v>
       </c>
@@ -3502,7 +3500,7 @@
         <v>43424</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="40">
         <v>43435</v>
       </c>
@@ -3528,7 +3526,7 @@
         <v>43437</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="40"/>
       <c r="B35" s="20" t="s">
         <v>58</v>
@@ -3550,7 +3548,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>50</v>
       </c>
@@ -3568,7 +3566,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="40">
         <v>43466</v>
       </c>
@@ -3594,7 +3592,7 @@
         <v>43475</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="40">
         <v>43497</v>
       </c>
@@ -3620,7 +3618,7 @@
         <v>43524</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="40"/>
       <c r="B39" s="20" t="s">
         <v>52</v>
@@ -3642,7 +3640,7 @@
         <v>43511</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="40">
         <v>43525</v>
       </c>
@@ -3662,7 +3660,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="40">
         <v>43556</v>
       </c>
@@ -3688,7 +3686,7 @@
         <v>43570</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="40"/>
       <c r="B42" s="20" t="s">
         <v>55</v>
@@ -3710,7 +3708,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="40"/>
       <c r="B43" s="20" t="s">
         <v>52</v>
@@ -3732,7 +3730,7 @@
         <v>43558</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="40"/>
       <c r="B44" s="20" t="s">
         <v>52</v>
@@ -3754,7 +3752,7 @@
         <v>43581</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="40">
         <v>43586</v>
       </c>
@@ -3780,7 +3778,7 @@
         <v>43591</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="40"/>
       <c r="B46" s="20" t="s">
         <v>58</v>
@@ -3802,7 +3800,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="40">
         <v>43617</v>
       </c>
@@ -3826,7 +3824,7 @@
         <v>43630</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="40"/>
       <c r="B48" s="20" t="s">
         <v>62</v>
@@ -3846,7 +3844,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="40"/>
       <c r="B49" s="20" t="s">
         <v>58</v>
@@ -3868,7 +3866,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="40">
         <v>43647</v>
       </c>
@@ -3894,7 +3892,7 @@
         <v>43661</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="40"/>
       <c r="B51" s="20" t="s">
         <v>52</v>
@@ -3916,7 +3914,7 @@
         <v>43677</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="40"/>
       <c r="B52" s="20" t="s">
         <v>55</v>
@@ -3938,7 +3936,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="40">
         <v>43678</v>
       </c>
@@ -3964,7 +3962,7 @@
         <v>43690</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="40"/>
       <c r="B54" s="20" t="s">
         <v>52</v>
@@ -3986,7 +3984,7 @@
         <v>43707</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="40">
         <v>43709</v>
       </c>
@@ -4012,7 +4010,7 @@
         <v>43720</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="40">
         <v>43739</v>
       </c>
@@ -4038,7 +4036,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="40"/>
       <c r="B57" s="20" t="s">
         <v>52</v>
@@ -4060,7 +4058,7 @@
         <v>43761</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="40"/>
       <c r="B58" s="20" t="s">
         <v>52</v>
@@ -4082,7 +4080,7 @@
         <v>43739</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="40"/>
       <c r="B59" s="20" t="s">
         <v>55</v>
@@ -4104,7 +4102,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="40">
         <v>43770</v>
       </c>
@@ -4130,7 +4128,7 @@
         <v>43788</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="40"/>
       <c r="B61" s="20" t="s">
         <v>55</v>
@@ -4152,7 +4150,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="40"/>
       <c r="B62" s="20" t="s">
         <v>69</v>
@@ -4174,7 +4172,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="40">
         <v>43800</v>
       </c>
@@ -4200,7 +4198,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="48" t="s">
         <v>47</v>
       </c>
@@ -4218,7 +4216,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="40">
         <v>43831</v>
       </c>
@@ -4244,7 +4242,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="40"/>
       <c r="B66" s="20" t="s">
         <v>58</v>
@@ -4266,7 +4264,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="40">
         <v>43862</v>
       </c>
@@ -4290,7 +4288,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="40"/>
       <c r="B68" s="20" t="s">
         <v>52</v>
@@ -4312,7 +4310,7 @@
         <v>43878</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="40"/>
       <c r="B69" s="20" t="s">
         <v>52</v>
@@ -4334,7 +4332,7 @@
         <v>43880</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="40">
         <v>43891</v>
       </c>
@@ -4354,7 +4352,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="40">
         <v>43922</v>
       </c>
@@ -4374,7 +4372,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="40">
         <v>43952</v>
       </c>
@@ -4394,7 +4392,7 @@
       <c r="J72" s="12"/>
       <c r="K72" s="15"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="40">
         <v>43983</v>
       </c>
@@ -4418,7 +4416,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="40">
         <v>44013</v>
       </c>
@@ -4444,7 +4442,7 @@
         <v>44015</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="40">
         <v>44044</v>
       </c>
@@ -4470,7 +4468,7 @@
         <v>44050</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="40"/>
       <c r="B76" s="20" t="s">
         <v>52</v>
@@ -4492,7 +4490,7 @@
         <v>44071</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="40">
         <v>44075</v>
       </c>
@@ -4518,7 +4516,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="40"/>
       <c r="B78" s="20" t="s">
         <v>52</v>
@@ -4540,7 +4538,7 @@
         <v>44102</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="40">
         <v>44105</v>
       </c>
@@ -4564,7 +4562,7 @@
         <v>44109</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="40">
         <v>44136</v>
       </c>
@@ -4584,7 +4582,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="40">
         <v>44166</v>
       </c>
@@ -4610,7 +4608,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="40"/>
       <c r="B82" s="20" t="s">
         <v>83</v>
@@ -4630,7 +4628,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="48" t="s">
         <v>79</v>
       </c>
@@ -4648,7 +4646,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="40">
         <v>44197</v>
       </c>
@@ -4672,7 +4670,7 @@
         <v>44207</v>
       </c>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="40">
         <v>44228</v>
       </c>
@@ -4692,7 +4690,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="40">
         <v>44256</v>
       </c>
@@ -4712,7 +4710,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="40">
         <v>44287</v>
       </c>
@@ -4732,7 +4730,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="40">
         <v>44317</v>
       </c>
@@ -4756,7 +4754,7 @@
         <v>44377</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="40">
         <v>44348</v>
       </c>
@@ -4776,7 +4774,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="40">
         <v>44378</v>
       </c>
@@ -4796,7 +4794,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="40">
         <v>44409</v>
       </c>
@@ -4816,7 +4814,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="40">
         <v>44440</v>
       </c>
@@ -4836,7 +4834,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="40">
         <v>44470</v>
       </c>
@@ -4862,7 +4860,7 @@
         <v>44498</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="40">
         <v>44501</v>
       </c>
@@ -4888,7 +4886,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="40"/>
       <c r="B95" s="20" t="s">
         <v>55</v>
@@ -4910,7 +4908,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="40">
         <v>44531</v>
       </c>
@@ -4936,7 +4934,7 @@
         <v>44559</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="48" t="s">
         <v>48</v>
       </c>
@@ -4954,7 +4952,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="40">
         <v>44562</v>
       </c>
@@ -4978,7 +4976,7 @@
         <v>44572</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="40">
         <v>44593</v>
       </c>
@@ -4998,7 +4996,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="40">
         <v>44621</v>
       </c>
@@ -5018,7 +5016,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="40">
         <v>44652</v>
       </c>
@@ -5038,7 +5036,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="40">
         <v>44682</v>
       </c>
@@ -5064,7 +5062,7 @@
         <v>44708</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="40">
         <v>44713</v>
       </c>
@@ -5084,7 +5082,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="40">
         <v>44743</v>
       </c>
@@ -5110,7 +5108,7 @@
         <v>44757</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="40"/>
       <c r="B105" s="20" t="s">
         <v>58</v>
@@ -5132,7 +5130,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="40">
         <v>44774</v>
       </c>
@@ -5158,7 +5156,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="40">
         <v>44805</v>
       </c>
@@ -5184,7 +5182,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="40">
         <v>44835</v>
       </c>
@@ -5210,7 +5208,7 @@
         <v>44858</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="40">
         <v>44866</v>
       </c>
@@ -5236,7 +5234,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="40"/>
       <c r="B110" s="20" t="s">
         <v>51</v>
@@ -5256,7 +5254,7 @@
         <v>44894</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="40"/>
       <c r="B111" s="20" t="s">
         <v>51</v>
@@ -5276,7 +5274,7 @@
         <v>44889</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="40">
         <v>44896</v>
       </c>
@@ -5304,7 +5302,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="48" t="s">
         <v>90</v>
       </c>
@@ -5322,7 +5320,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="40">
         <v>44927</v>
       </c>
@@ -5348,7 +5346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="40"/>
       <c r="B115" s="20" t="s">
         <v>51</v>
@@ -5368,7 +5366,7 @@
         <v>44937</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="40"/>
       <c r="B116" s="20" t="s">
         <v>52</v>
@@ -5390,7 +5388,7 @@
         <v>44946</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="40">
         <v>44958</v>
       </c>
@@ -5416,7 +5414,7 @@
         <v>44985</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="40">
         <v>44986</v>
       </c>
@@ -5436,25 +5434,27 @@
       <c r="J118" s="11"/>
       <c r="K118" s="20"/>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="40">
         <v>45017</v>
       </c>
       <c r="B119" s="20"/>
-      <c r="C119" s="13"/>
+      <c r="C119" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D119" s="39"/>
       <c r="E119" s="9"/>
       <c r="F119" s="20"/>
-      <c r="G119" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G119" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H119" s="39"/>
       <c r="I119" s="9"/>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="40">
         <v>45047</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="J120" s="11"/>
       <c r="K120" s="20"/>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="40">
         <v>45078</v>
       </c>
@@ -5490,7 +5490,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="40">
         <v>45108</v>
       </c>
@@ -5508,7 +5508,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="40">
         <v>45139</v>
       </c>
@@ -5526,7 +5526,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="40">
         <v>45170</v>
       </c>
@@ -5544,7 +5544,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="40">
         <v>45200</v>
       </c>
@@ -5562,7 +5562,7 @@
       <c r="J125" s="11"/>
       <c r="K125" s="20"/>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="40">
         <v>45231</v>
       </c>
@@ -5580,7 +5580,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="40">
         <v>45261</v>
       </c>
@@ -5598,7 +5598,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="40">
         <v>45292</v>
       </c>
@@ -5616,7 +5616,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="40">
         <v>45323</v>
       </c>
@@ -5634,7 +5634,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="40">
         <v>45352</v>
       </c>
@@ -5652,7 +5652,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="40">
         <v>45383</v>
       </c>
@@ -5670,7 +5670,7 @@
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="40">
         <v>45413</v>
       </c>
@@ -5688,7 +5688,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="40">
         <v>45444</v>
       </c>
@@ -5706,7 +5706,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="40">
         <v>45474</v>
       </c>
@@ -5724,7 +5724,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="40">
         <v>45505</v>
       </c>
@@ -5742,7 +5742,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="40">
         <v>45536</v>
       </c>
@@ -5760,7 +5760,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="40">
         <v>45566</v>
       </c>
@@ -5778,7 +5778,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="40">
         <v>45597</v>
       </c>
@@ -5796,7 +5796,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="40">
         <v>45627</v>
       </c>
@@ -5814,7 +5814,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="40">
         <v>45658</v>
       </c>
@@ -5832,7 +5832,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="40">
         <v>45689</v>
       </c>
@@ -5850,7 +5850,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="40">
         <v>45717</v>
       </c>
@@ -5868,7 +5868,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="40">
         <v>45748</v>
       </c>
@@ -5886,7 +5886,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="40">
         <v>45778</v>
       </c>
@@ -5904,7 +5904,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="40">
         <v>45809</v>
       </c>
@@ -5922,7 +5922,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="40">
         <v>45839</v>
       </c>
@@ -5940,7 +5940,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="40">
         <v>45870</v>
       </c>
@@ -5958,7 +5958,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="40">
         <v>45901</v>
       </c>
@@ -5976,7 +5976,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="40">
         <v>45931</v>
       </c>
@@ -5994,7 +5994,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="40">
         <v>45962</v>
       </c>
@@ -6012,7 +6012,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="40">
         <v>45992</v>
       </c>
@@ -6030,7 +6030,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="40">
         <v>46023</v>
       </c>
@@ -6048,7 +6048,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="40">
         <v>46054</v>
       </c>
@@ -6066,7 +6066,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="40">
         <v>46082</v>
       </c>
@@ -6084,7 +6084,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="40">
         <v>46113</v>
       </c>
@@ -6102,7 +6102,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="40">
         <v>46143</v>
       </c>
@@ -6120,7 +6120,7 @@
       <c r="J156" s="11"/>
       <c r="K156" s="20"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="40">
         <v>46174</v>
       </c>
@@ -6138,7 +6138,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="40">
         <v>46204</v>
       </c>
@@ -6156,7 +6156,7 @@
       <c r="J158" s="11"/>
       <c r="K158" s="20"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="40">
         <v>46235</v>
       </c>
@@ -6174,7 +6174,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="40">
         <v>46266</v>
       </c>
@@ -6192,7 +6192,7 @@
       <c r="J160" s="11"/>
       <c r="K160" s="20"/>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="40">
         <v>46296</v>
       </c>
@@ -6210,7 +6210,7 @@
       <c r="J161" s="11"/>
       <c r="K161" s="20"/>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="40">
         <v>46327</v>
       </c>
@@ -6228,7 +6228,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="40">
         <v>46357</v>
       </c>
@@ -6246,7 +6246,7 @@
       <c r="J163" s="11"/>
       <c r="K163" s="20"/>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="40">
         <v>46388</v>
       </c>
@@ -6264,7 +6264,7 @@
       <c r="J164" s="11"/>
       <c r="K164" s="20"/>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="40">
         <v>46419</v>
       </c>
@@ -6282,7 +6282,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="40">
         <v>46447</v>
       </c>
@@ -6300,7 +6300,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="40">
         <v>46478</v>
       </c>
@@ -6318,7 +6318,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="40">
         <v>46508</v>
       </c>
@@ -6336,7 +6336,7 @@
       <c r="J168" s="11"/>
       <c r="K168" s="20"/>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="40">
         <v>46539</v>
       </c>
@@ -6354,7 +6354,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="40">
         <v>46569</v>
       </c>
@@ -6372,7 +6372,7 @@
       <c r="J170" s="11"/>
       <c r="K170" s="20"/>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="40">
         <v>46600</v>
       </c>
@@ -6390,7 +6390,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="40">
         <v>46631</v>
       </c>
@@ -6408,7 +6408,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="40">
         <v>46661</v>
       </c>
@@ -6426,7 +6426,7 @@
       <c r="J173" s="11"/>
       <c r="K173" s="20"/>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="40">
         <v>46692</v>
       </c>
@@ -6444,7 +6444,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="40">
         <v>46722</v>
       </c>
@@ -6462,7 +6462,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="40">
         <v>46753</v>
       </c>
@@ -6480,7 +6480,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="40">
         <v>46784</v>
       </c>
@@ -6498,7 +6498,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="40">
         <v>46813</v>
       </c>
@@ -6516,7 +6516,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="40">
         <v>46844</v>
       </c>
@@ -6534,7 +6534,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="40">
         <v>46874</v>
       </c>
@@ -6552,7 +6552,7 @@
       <c r="J180" s="11"/>
       <c r="K180" s="20"/>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="40">
         <v>46905</v>
       </c>
@@ -6570,7 +6570,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="40">
         <v>46935</v>
       </c>
@@ -6588,7 +6588,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="40">
         <v>46966</v>
       </c>
@@ -6606,7 +6606,7 @@
       <c r="J183" s="11"/>
       <c r="K183" s="20"/>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="40">
         <v>46997</v>
       </c>
@@ -6624,7 +6624,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="40">
         <v>47027</v>
       </c>
@@ -6642,7 +6642,7 @@
       <c r="J185" s="11"/>
       <c r="K185" s="20"/>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="40"/>
       <c r="B186" s="20"/>
       <c r="C186" s="13"/>
@@ -6658,7 +6658,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="40"/>
       <c r="B187" s="20"/>
       <c r="C187" s="13"/>
@@ -6674,7 +6674,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="40"/>
       <c r="B188" s="20"/>
       <c r="C188" s="13"/>
@@ -6690,7 +6690,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="40"/>
       <c r="B189" s="20"/>
       <c r="C189" s="13"/>
@@ -6706,7 +6706,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="40"/>
       <c r="B190" s="20"/>
       <c r="C190" s="13"/>
@@ -6722,7 +6722,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="40"/>
       <c r="B191" s="20"/>
       <c r="C191" s="13"/>
@@ -6738,7 +6738,7 @@
       <c r="J191" s="11"/>
       <c r="K191" s="20"/>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="40"/>
       <c r="B192" s="20"/>
       <c r="C192" s="13"/>
@@ -6754,7 +6754,7 @@
       <c r="J192" s="11"/>
       <c r="K192" s="20"/>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="40"/>
       <c r="B193" s="20"/>
       <c r="C193" s="13"/>
@@ -6770,7 +6770,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="40"/>
       <c r="B194" s="20"/>
       <c r="C194" s="13"/>
@@ -6786,7 +6786,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="41"/>
       <c r="B195" s="15"/>
       <c r="C195" s="42"/>
@@ -6818,10 +6818,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{3C67B38A-DE91-4BA1-85D0-F5C61D6395E6}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{C9F25C0C-606E-415B-87B4-B098DE141EB5}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -6844,28 +6844,28 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CB8F789-193C-43F9-8D48-B0DEE5C76ADA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.21875" customWidth="1"/>
-    <col min="2" max="2" width="20.77734375" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="60" t="s">
         <v>33</v>
       </c>
@@ -6878,7 +6878,7 @@
       <c r="K1" s="61"/>
       <c r="L1" s="61"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -6907,7 +6907,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>24.75</v>
       </c>
@@ -6931,17 +6931,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -6962,7 +6962,7 @@
       <c r="K6" s="62"/>
       <c r="L6" s="62"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -6989,7 +6989,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -7015,7 +7015,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -7067,7 +7067,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -7093,7 +7093,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -7119,7 +7119,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -7145,7 +7145,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -7171,7 +7171,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -7191,7 +7191,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -7211,7 +7211,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -7231,7 +7231,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -7252,7 +7252,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -7273,7 +7273,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -7294,7 +7294,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -7336,7 +7336,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -7357,7 +7357,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -7378,7 +7378,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -7399,7 +7399,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -7441,7 +7441,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -7462,7 +7462,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -7483,7 +7483,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -7504,7 +7504,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -7525,7 +7525,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -7546,7 +7546,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -7567,7 +7567,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -7588,7 +7588,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -7609,7 +7609,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -7630,7 +7630,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -7651,7 +7651,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -7660,7 +7660,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -7669,7 +7669,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -7678,7 +7678,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -7687,7 +7687,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -7696,7 +7696,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -7705,7 +7705,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -7714,7 +7714,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -7723,7 +7723,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -7732,7 +7732,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -7741,7 +7741,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -7750,7 +7750,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -7759,7 +7759,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -7768,7 +7768,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -7777,7 +7777,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -7786,7 +7786,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -7795,7 +7795,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -7804,7 +7804,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -7813,7 +7813,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -7822,7 +7822,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -7831,7 +7831,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -7840,7 +7840,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -7849,7 +7849,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -7858,7 +7858,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -7867,7 +7867,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -7885,7 +7885,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -7894,7 +7894,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -7903,7 +7903,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -7912,7 +7912,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
